--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ClientData" sheetId="1" r:id="rId1"/>
     <sheet name="ContactData" sheetId="2" r:id="rId2"/>
     <sheet name="AddArticle" sheetId="3" r:id="rId3"/>
+    <sheet name="DivisionData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>TestId</t>
   </si>
@@ -130,13 +131,22 @@
   </si>
   <si>
     <t>BCP008_Test</t>
+  </si>
+  <si>
+    <t>BCP009_Test</t>
+  </si>
+  <si>
+    <t>BCP010_Test</t>
+  </si>
+  <si>
+    <t>kulwindersingh@benicomp.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +159,12 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -182,7 +198,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,6 +210,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,7 +628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="30">
+    <row r="3" spans="1:17" ht="45">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -620,24 +637,160 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>163656</v>
+      </c>
+      <c r="J3" s="1">
+        <v>98956</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="45">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
+        <v>163656</v>
+      </c>
+      <c r="J4" s="1">
+        <v>98956</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="45">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1">
+        <v>163656</v>
+      </c>
+      <c r="J5" s="1">
+        <v>98956</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="1">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="kulwinder@gmail.com"/>
     <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3" display="kulwinder@gmail.com"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5" display="kulwinder@gmail.com"/>
+    <hyperlink ref="M4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7" display="kulwinder@gmail.com"/>
+    <hyperlink ref="M5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -645,9 +798,10 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -660,8 +814,11 @@
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -673,6 +830,26 @@
       </c>
       <c r="D2" t="s">
         <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +863,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -754,4 +931,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="ClientData" sheetId="1" r:id="rId1"/>
-    <sheet name="ContactData" sheetId="2" r:id="rId2"/>
-    <sheet name="AddArticle" sheetId="3" r:id="rId3"/>
-    <sheet name="DivisionData" sheetId="4" r:id="rId4"/>
+    <sheet name="Contact2Data" sheetId="5" r:id="rId2"/>
+    <sheet name="ContactData" sheetId="2" r:id="rId3"/>
+    <sheet name="AddArticle" sheetId="3" r:id="rId4"/>
+    <sheet name="DivisionData" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
   <si>
     <t>TestId</t>
   </si>
@@ -140,6 +141,12 @@
   </si>
   <si>
     <t>kulwindersingh@benicomp.com</t>
+  </si>
+  <si>
+    <t>Contact1</t>
+  </si>
+  <si>
+    <t>Contact2</t>
   </si>
 </sst>
 </file>
@@ -790,6 +797,79 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -823,7 +903,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -840,7 +920,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -858,7 +938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -933,7 +1013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ClientData" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="ContactData" sheetId="2" r:id="rId3"/>
     <sheet name="AddArticle" sheetId="3" r:id="rId4"/>
     <sheet name="DivisionData" sheetId="4" r:id="rId5"/>
+    <sheet name="DependentTestData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
   <si>
     <t>TestId</t>
   </si>
@@ -101,9 +102,6 @@
     <t>kulwinder12.com</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>BP</t>
   </si>
   <si>
@@ -122,9 +120,6 @@
     <t>BCP005_Test</t>
   </si>
   <si>
-    <t>Kulwinder Edit</t>
-  </si>
-  <si>
     <t>Updated This is a Automation Test Data.This is a Automation Test Data.This is a Automation Test Data .</t>
   </si>
   <si>
@@ -143,10 +138,37 @@
     <t>kulwindersingh@benicomp.com</t>
   </si>
   <si>
-    <t>Contact1</t>
-  </si>
-  <si>
-    <t>Contact2</t>
+    <t>NoOfEmployees</t>
+  </si>
+  <si>
+    <t>Divison_Name</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Security_Number</t>
+  </si>
+  <si>
+    <t>AutoTest</t>
+  </si>
+  <si>
+    <t>AutoContact1</t>
+  </si>
+  <si>
+    <t>AutoContact2</t>
+  </si>
+  <si>
+    <t>AutoArticle</t>
+  </si>
+  <si>
+    <t>AutoArticle Edit</t>
   </si>
 </sst>
 </file>
@@ -516,7 +538,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -593,10 +615,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -637,13 +659,13 @@
     </row>
     <row r="3" spans="1:17" ht="45">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -684,13 +706,13 @@
     </row>
     <row r="4" spans="1:17" ht="45">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -731,13 +753,13 @@
     </row>
     <row r="5" spans="1:17" ht="45">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -796,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -830,7 +852,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -839,15 +861,15 @@
         <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -856,7 +878,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +892,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -903,7 +925,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -912,15 +934,15 @@
         <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -929,7 +951,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +965,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -958,54 +980,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1015,16 +1037,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1032,10 +1055,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="D2">
+        <v>12031991</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ClientData" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="ContactData" sheetId="2" r:id="rId3"/>
     <sheet name="AddArticle" sheetId="3" r:id="rId4"/>
     <sheet name="DivisionData" sheetId="4" r:id="rId5"/>
-    <sheet name="DependentTestData" sheetId="6" r:id="rId6"/>
+    <sheet name="AgentData" sheetId="7" r:id="rId6"/>
+    <sheet name="DependentTestData" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>TestId</t>
   </si>
@@ -169,6 +170,36 @@
   </si>
   <si>
     <t>AutoArticle Edit</t>
+  </si>
+  <si>
+    <t>AutoAgent</t>
+  </si>
+  <si>
+    <t>Agent_Email</t>
+  </si>
+  <si>
+    <t>kulwindersingh1@benicomp.com</t>
+  </si>
+  <si>
+    <t>BCP011_Test</t>
+  </si>
+  <si>
+    <t>Agency_Name</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>Agency1</t>
+  </si>
+  <si>
+    <t>Agency2</t>
+  </si>
+  <si>
+    <t>Agency3</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -227,7 +258,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -240,6 +271,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1039,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1080,10 +1112,117 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1095,7 +1234,7 @@
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="ClientData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
   <si>
     <t>TestId</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>BCP012_Test</t>
+  </si>
+  <si>
+    <t>Mohali</t>
+  </si>
+  <si>
+    <t>kulwinder1567.com</t>
   </si>
 </sst>
 </file>
@@ -567,21 +576,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
     <col min="11" max="12" width="9.140625" style="1"/>
@@ -812,7 +821,7 @@
         <v>163656</v>
       </c>
       <c r="J5" s="1">
-        <v>98956</v>
+        <v>9895996</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
@@ -828,6 +837,97 @@
       </c>
       <c r="O5" s="1">
         <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="45">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>163656</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9899956</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="45">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1">
+        <v>163656</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9899956</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -840,9 +940,13 @@
     <hyperlink ref="M4" r:id="rId6"/>
     <hyperlink ref="D5" r:id="rId7" display="kulwinder@gmail.com"/>
     <hyperlink ref="M5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9" display="kulwinder@gmail.com"/>
+    <hyperlink ref="M6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11" display="kulwinder@gmail.com"/>
+    <hyperlink ref="M7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -921,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -983,6 +1087,23 @@
         <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1114,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
